--- a/QX Net company data/QX Net next js.xlsx
+++ b/QX Net company data/QX Net next js.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Companies" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4909" uniqueCount="2725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5189" uniqueCount="2815">
   <si>
     <t>companyId</t>
   </si>
@@ -9227,10 +9227,10 @@
     <t>COMP_00001_SERVICES_01</t>
   </si>
   <si>
-    <t>Property Development</t>
-  </si>
-  <si>
-    <t>Creating new residential and commercial buildings from concept to completion</t>
+    <t>Project Planning</t>
+  </si>
+  <si>
+    <t>Developing comprehensive property development roadmaps with strategic timelines and resource allocation frameworks.</t>
   </si>
   <si>
     <t>COMP_00001_SERVICES_02</t>
@@ -9239,61 +9239,61 @@
     <t>Land Acquisition</t>
   </si>
   <si>
-    <t>Identifying and purchasing strategic properties for future development</t>
+    <t>Identifying and securing strategically valuable land parcels that align with long-term development objectives and zoning requirements.</t>
   </si>
   <si>
     <t>COMP_00001_SERVICES_03</t>
   </si>
   <si>
-    <t>Project Management</t>
-  </si>
-  <si>
-    <t>Overseeing all aspects of construction projects to ensure timely delivery</t>
+    <t>Feasibility Studies</t>
+  </si>
+  <si>
+    <t>Conducting thorough analysis of project viability including market demand, financial projections, and regulatory compliance assessments.</t>
   </si>
   <si>
     <t>COMP_00001_SERVICES_04</t>
   </si>
   <si>
-    <t>Interior Design</t>
-  </si>
-  <si>
-    <t>Crafting aesthetically pleasing and functional indoor spaces</t>
+    <t>Lease Administration</t>
+  </si>
+  <si>
+    <t>Managing the entire lifecycle of property lease agreements from preparation through execution to renewal and termination processes.</t>
   </si>
   <si>
     <t>COMP_00001_SERVICES_05</t>
   </si>
   <si>
-    <t>Architecture &amp; Planning</t>
-  </si>
-  <si>
-    <t>Designing innovative buildings that meet client needs and local regulations</t>
+    <t>Development Application Management</t>
+  </si>
+  <si>
+    <t>Navigating complex planning approval processes with local authorities to secure necessary permits and development consents.</t>
   </si>
   <si>
     <t>COMP_00001_SERVICES_06</t>
   </si>
   <si>
-    <t>Investment Consulting</t>
-  </si>
-  <si>
-    <t>Providing expert advice on real estate investment opportunities</t>
+    <t>Project Financing</t>
+  </si>
+  <si>
+    <t>Structuring and securing optimal funding solutions through strategic debt arrangements, equity partnerships, and specialized financial instruments.</t>
   </si>
   <si>
     <t>COMP_00001_SERVICES_07</t>
   </si>
   <si>
-    <t>Property Marketing</t>
-  </si>
-  <si>
-    <t>Promoting properties through targeted advertising and sales campaigns</t>
+    <t>Development Management</t>
+  </si>
+  <si>
+    <t>Overseeing comprehensive development processes from initial concept through design, construction, and final project delivery stages.</t>
   </si>
   <si>
     <t>COMP_00001_SERVICES_08</t>
   </si>
   <si>
-    <t>Commercial Leasing</t>
-  </si>
-  <si>
-    <t>Managing lease agreements for retail, office, and industrial spaces</t>
+    <t>Marketing and Sales</t>
+  </si>
+  <si>
+    <t>Creating and implementing targeted promotional strategies to attract qualified buyers and maximize property value and investment returns.</t>
   </si>
   <si>
     <t>Service Title</t>
@@ -9305,64 +9305,334 @@
     <t>COMP_00001_SERVICES_09</t>
   </si>
   <si>
-    <t>Urban Renewal</t>
-  </si>
-  <si>
-    <t>Revitalizing underdeveloped areas through strategic property development</t>
+    <t>Investor Relations</t>
+  </si>
+  <si>
+    <t>Establishing transparent communication channels with stakeholders through regular performance updates and strategic investment opportunity presentations.</t>
   </si>
   <si>
     <t>COMP_00001_SERVICES_10</t>
   </si>
   <si>
-    <t>Sustainable Building</t>
-  </si>
-  <si>
-    <t>Creating eco-friendly developments using green technology and materials</t>
-  </si>
-  <si>
-    <t>COMP_00001_SERVICES_11</t>
-  </si>
-  <si>
-    <t>Mixed-Use Development</t>
-  </si>
-  <si>
-    <t>Designing properties that combine residential, commercial, and leisure spaces</t>
-  </si>
-  <si>
-    <t>COMP_00001_SERVICES_12</t>
-  </si>
-  <si>
-    <t>Property Valuation</t>
-  </si>
-  <si>
-    <t>Assessing current market values of properties and development potential</t>
-  </si>
-  <si>
-    <t>COMP_00001_SERVICES_13</t>
-  </si>
-  <si>
-    <t>Feasibility Studies</t>
-  </si>
-  <si>
-    <t>Analyzing potential projects to determine viability and profitability</t>
-  </si>
-  <si>
-    <t>COMP_00001_SERVICES_14</t>
-  </si>
-  <si>
-    <t>Asset Management</t>
-  </si>
-  <si>
-    <t>Maximizing returns on property investments through strategic management</t>
-  </si>
-  <si>
-    <t>COMP_00001_SERVICES_15</t>
-  </si>
-  <si>
-    <t>Renovation Services</t>
-  </si>
-  <si>
-    <t>Updating and improving existing properties to increase value</t>
+    <t>Sustainability Planning</t>
+  </si>
+  <si>
+    <t>Incorporating environmentally responsible design elements and energy-efficient technologies that reduce carbon footprint and operating costs.</t>
+  </si>
+  <si>
+    <t>COMP_00002_SERVICES_01</t>
+  </si>
+  <si>
+    <t>COMP_00002_SERVICES_02</t>
+  </si>
+  <si>
+    <t>COMP_00002_SERVICES_03</t>
+  </si>
+  <si>
+    <t>COMP_00002_SERVICES_04</t>
+  </si>
+  <si>
+    <t>COMP_00002_SERVICES_05</t>
+  </si>
+  <si>
+    <t>COMP_00002_SERVICES_06</t>
+  </si>
+  <si>
+    <t>COMP_00002_SERVICES_07</t>
+  </si>
+  <si>
+    <t>COMP_00002_SERVICES_08</t>
+  </si>
+  <si>
+    <t>COMP_00002_SERVICES_09</t>
+  </si>
+  <si>
+    <t>COMP_00002_SERVICES_10</t>
+  </si>
+  <si>
+    <t>COMP_00003_SERVICES_01</t>
+  </si>
+  <si>
+    <t>COMP_00003_SERVICES_02</t>
+  </si>
+  <si>
+    <t>COMP_00003_SERVICES_03</t>
+  </si>
+  <si>
+    <t>COMP_00003_SERVICES_04</t>
+  </si>
+  <si>
+    <t>COMP_00003_SERVICES_05</t>
+  </si>
+  <si>
+    <t>COMP_00003_SERVICES_06</t>
+  </si>
+  <si>
+    <t>COMP_00003_SERVICES_07</t>
+  </si>
+  <si>
+    <t>COMP_00003_SERVICES_08</t>
+  </si>
+  <si>
+    <t>COMP_00003_SERVICES_09</t>
+  </si>
+  <si>
+    <t>COMP_00003_SERVICES_10</t>
+  </si>
+  <si>
+    <t>COMP_00004_SERVICES_01</t>
+  </si>
+  <si>
+    <t>COMP_00004_SERVICES_02</t>
+  </si>
+  <si>
+    <t>COMP_00004_SERVICES_03</t>
+  </si>
+  <si>
+    <t>COMP_00004_SERVICES_04</t>
+  </si>
+  <si>
+    <t>COMP_00004_SERVICES_05</t>
+  </si>
+  <si>
+    <t>COMP_00004_SERVICES_06</t>
+  </si>
+  <si>
+    <t>COMP_00004_SERVICES_07</t>
+  </si>
+  <si>
+    <t>COMP_00004_SERVICES_08</t>
+  </si>
+  <si>
+    <t>COMP_00004_SERVICES_09</t>
+  </si>
+  <si>
+    <t>COMP_00004_SERVICES_10</t>
+  </si>
+  <si>
+    <t>COMP_00005_SERVICES_01</t>
+  </si>
+  <si>
+    <t>COMP_00005_SERVICES_02</t>
+  </si>
+  <si>
+    <t>COMP_00005_SERVICES_03</t>
+  </si>
+  <si>
+    <t>COMP_00005_SERVICES_04</t>
+  </si>
+  <si>
+    <t>COMP_00005_SERVICES_05</t>
+  </si>
+  <si>
+    <t>COMP_00005_SERVICES_06</t>
+  </si>
+  <si>
+    <t>COMP_00005_SERVICES_07</t>
+  </si>
+  <si>
+    <t>COMP_00005_SERVICES_08</t>
+  </si>
+  <si>
+    <t>COMP_00005_SERVICES_09</t>
+  </si>
+  <si>
+    <t>COMP_00005_SERVICES_10</t>
+  </si>
+  <si>
+    <t>COMP_00066_SERVICES_01</t>
+  </si>
+  <si>
+    <t>Lender Matching Services</t>
+  </si>
+  <si>
+    <t>Connecting borrowers with appropriate lenders from a diverse panel of banks and non-bank institutions based on specific financial circumstances.</t>
+  </si>
+  <si>
+    <t>COMP_00066_SERVICES_02</t>
+  </si>
+  <si>
+    <t>Loan Comparison Analysis</t>
+  </si>
+  <si>
+    <t>Conducting comprehensive evaluations of multiple loan products to identify options with the most favorable rates, features, and terms for clients.</t>
+  </si>
+  <si>
+    <t>COMP_00066_SERVICES_03</t>
+  </si>
+  <si>
+    <t>Application Processing</t>
+  </si>
+  <si>
+    <t>Managing the complete loan submission process including documentation collection, verification, and lender liaison to streamline approvals.</t>
+  </si>
+  <si>
+    <t>COMP_00066_SERVICES_04</t>
+  </si>
+  <si>
+    <t>Credit Profile Assessment</t>
+  </si>
+  <si>
+    <t>Analyzing borrower credit histories and financial situations to determine optimal lending strategies and improve approval chances.</t>
+  </si>
+  <si>
+    <t>COMP_00066_SERVICES_05</t>
+  </si>
+  <si>
+    <t>Pre-Approval Facilitation</t>
+  </si>
+  <si>
+    <t>Securing preliminary loan approvals to strengthen client purchasing position and establish clear borrowing capacity before property selection.</t>
+  </si>
+  <si>
+    <t>COMP_00066_SERVICES_06</t>
+  </si>
+  <si>
+    <t>Negotiation Representation</t>
+  </si>
+  <si>
+    <t>Advocating for clients with lending institutions to secure improved interest rates, reduced fees, or more favorable loan conditions.</t>
+  </si>
+  <si>
+    <t>COMP_00066_SERVICES_07</t>
+  </si>
+  <si>
+    <t>Refinancing Analysis</t>
+  </si>
+  <si>
+    <t>Evaluating existing mortgages against current market offerings to identify potential savings through loan replacement or restructuring.</t>
+  </si>
+  <si>
+    <t>COMP_00066_SERVICES_08</t>
+  </si>
+  <si>
+    <t>Property Investment Guidance</t>
+  </si>
+  <si>
+    <t>Providing insights on financing strategies for investment properties including tax implications and projected return considerations.</t>
+  </si>
+  <si>
+    <t>COMP_00066_SERVICES_09</t>
+  </si>
+  <si>
+    <t>First Home Buyer Assistance</t>
+  </si>
+  <si>
+    <t>Offering specialized guidance for first-time purchasers including grant eligibility, government schemes, and entry-level loan products.</t>
+  </si>
+  <si>
+    <t>COMP_00066_SERVICES_10</t>
+  </si>
+  <si>
+    <t>Settlement Coordination</t>
+  </si>
+  <si>
+    <t>Managing the final stages of the lending process including document preparation, fund disbursement, and closing procedures.</t>
+  </si>
+  <si>
+    <t>COMP_00066_SERVICES_11</t>
+  </si>
+  <si>
+    <t>COMP_00067_SERVICES_01</t>
+  </si>
+  <si>
+    <t>COMP_00067_SERVICES_02</t>
+  </si>
+  <si>
+    <t>COMP_00067_SERVICES_03</t>
+  </si>
+  <si>
+    <t>COMP_00067_SERVICES_04</t>
+  </si>
+  <si>
+    <t>COMP_00067_SERVICES_05</t>
+  </si>
+  <si>
+    <t>COMP_00067_SERVICES_06</t>
+  </si>
+  <si>
+    <t>COMP_00067_SERVICES_07</t>
+  </si>
+  <si>
+    <t>COMP_00067_SERVICES_08</t>
+  </si>
+  <si>
+    <t>COMP_00067_SERVICES_09</t>
+  </si>
+  <si>
+    <t>COMP_00067_SERVICES_10</t>
+  </si>
+  <si>
+    <t>COMP_00068_SERVICES_01</t>
+  </si>
+  <si>
+    <t>COMP_00068_SERVICES_02</t>
+  </si>
+  <si>
+    <t>COMP_00068_SERVICES_03</t>
+  </si>
+  <si>
+    <t>COMP_00068_SERVICES_04</t>
+  </si>
+  <si>
+    <t>COMP_00068_SERVICES_05</t>
+  </si>
+  <si>
+    <t>COMP_00068_SERVICES_06</t>
+  </si>
+  <si>
+    <t>COMP_00068_SERVICES_07</t>
+  </si>
+  <si>
+    <t>COMP_00068_SERVICES_08</t>
+  </si>
+  <si>
+    <t>COMP_00068_SERVICES_09</t>
+  </si>
+  <si>
+    <t>COMP_00090_SERVICES_01</t>
+  </si>
+  <si>
+    <t>Financial Statement Preparation</t>
+  </si>
+  <si>
+    <t>Creation of business performance reports.</t>
+  </si>
+  <si>
+    <t>COMP_00090_SERVICES_02</t>
+  </si>
+  <si>
+    <t>Tax Compliance</t>
+  </si>
+  <si>
+    <t>Preparation and lodgment of required tax documents.</t>
+  </si>
+  <si>
+    <t>COMP_00090_SERVICES_03</t>
+  </si>
+  <si>
+    <t>Bookkeeping</t>
+  </si>
+  <si>
+    <t>Recording of financial transactions and reconciliations.</t>
+  </si>
+  <si>
+    <t>COMP_00090_SERVICES_04</t>
+  </si>
+  <si>
+    <t>Business Advisory</t>
+  </si>
+  <si>
+    <t>Guidance on improving financial performance.</t>
+  </si>
+  <si>
+    <t>COMP_00090_SERVICES_05</t>
+  </si>
+  <si>
+    <t>Audit Services</t>
+  </si>
+  <si>
+    <t>Independent verification of financial information.</t>
   </si>
   <si>
     <t>historyId</t>
@@ -9486,7 +9756,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -9500,6 +9770,12 @@
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -9990,31 +10266,28 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10023,136 +10296,140 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -10630,10 +10907,10 @@
   </sheetPr>
   <dimension ref="A1:N320"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomLeft" activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -10700,13 +10977,13 @@
       <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H2" s="1">
@@ -10718,10 +10995,10 @@
       <c r="J2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="9" t="s">
         <v>23</v>
       </c>
       <c r="M2" s="1" t="s">
@@ -10735,20 +11012,20 @@
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="3"/>
       <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="10" t="s">
         <v>28</v>
       </c>
       <c r="M3" s="1" t="s">
@@ -10762,20 +11039,20 @@
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="3"/>
       <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="10" t="s">
         <v>32</v>
       </c>
       <c r="M4" s="1" t="s">
@@ -10789,10 +11066,10 @@
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>35</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -10801,10 +11078,10 @@
       <c r="J5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="10" t="s">
         <v>37</v>
       </c>
       <c r="M5" s="1" t="s">
@@ -10818,20 +11095,20 @@
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="3"/>
       <c r="F6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="10" t="s">
         <v>41</v>
       </c>
       <c r="M6" s="1" t="s">
@@ -10845,20 +11122,20 @@
       <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="3"/>
       <c r="F7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="10" t="s">
         <v>45</v>
       </c>
       <c r="M7" s="1" t="s">
@@ -10872,20 +11149,20 @@
       <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="3"/>
       <c r="F8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="10" t="s">
         <v>49</v>
       </c>
       <c r="M8" s="1" t="s">
@@ -10899,10 +11176,10 @@
       <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>52</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -10911,10 +11188,10 @@
       <c r="J9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="L9" s="10" t="s">
         <v>54</v>
       </c>
       <c r="M9" s="1" t="s">
@@ -10928,20 +11205,20 @@
       <c r="A10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="3"/>
       <c r="F10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="L10" s="10" t="s">
         <v>58</v>
       </c>
       <c r="M10" s="1" t="s">
@@ -10955,10 +11232,10 @@
       <c r="A11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>61</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -10967,10 +11244,10 @@
       <c r="J11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="10" t="s">
         <v>63</v>
       </c>
       <c r="M11" s="1" t="s">
@@ -10984,20 +11261,20 @@
       <c r="A12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="3"/>
       <c r="F12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="L12" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M12" s="1" t="s">
@@ -11011,7 +11288,7 @@
       <c r="A13" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>69</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -11020,10 +11297,10 @@
       <c r="J13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" s="3" t="s">
         <v>72</v>
       </c>
       <c r="M13" s="1" t="s">
@@ -11037,7 +11314,7 @@
       <c r="A14" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -11046,10 +11323,10 @@
       <c r="J14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="L14" s="3" t="s">
         <v>76</v>
       </c>
       <c r="M14" s="1" t="s">
@@ -11063,7 +11340,7 @@
       <c r="A15" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -11075,10 +11352,10 @@
       <c r="J15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="L15" s="11" t="s">
         <v>81</v>
       </c>
       <c r="M15" s="1" t="s">
@@ -11092,7 +11369,7 @@
       <c r="A16" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>83</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -11101,10 +11378,10 @@
       <c r="J16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="L16" s="3" t="s">
         <v>85</v>
       </c>
       <c r="M16" s="1" t="s">
@@ -11118,7 +11395,7 @@
       <c r="A17" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>87</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -11127,10 +11404,10 @@
       <c r="J17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="L17" s="10" t="s">
+      <c r="L17" s="11" t="s">
         <v>89</v>
       </c>
       <c r="M17" s="1" t="s">
@@ -11144,7 +11421,7 @@
       <c r="A18" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>91</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -11153,10 +11430,10 @@
       <c r="J18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="L18" s="10" t="s">
+      <c r="L18" s="11" t="s">
         <v>93</v>
       </c>
       <c r="M18" s="1" t="s">
@@ -11170,7 +11447,7 @@
       <c r="A19" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>95</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -11179,10 +11456,10 @@
       <c r="J19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K19" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="L19" s="10" t="s">
+      <c r="L19" s="11" t="s">
         <v>97</v>
       </c>
       <c r="M19" s="1" t="s">
@@ -11196,7 +11473,7 @@
       <c r="A20" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>99</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -11205,10 +11482,10 @@
       <c r="J20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K20" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="L20" s="10" t="s">
+      <c r="L20" s="11" t="s">
         <v>101</v>
       </c>
       <c r="M20" s="1" t="s">
@@ -11222,7 +11499,7 @@
       <c r="A21" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>103</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -11231,10 +11508,10 @@
       <c r="J21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="K21" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="L21" s="10" t="s">
+      <c r="L21" s="11" t="s">
         <v>105</v>
       </c>
       <c r="M21" s="1" t="s">
@@ -11248,7 +11525,7 @@
       <c r="A22" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="8" t="s">
         <v>107</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -11257,10 +11534,10 @@
       <c r="J22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="K22" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="L22" s="10" t="s">
+      <c r="L22" s="11" t="s">
         <v>109</v>
       </c>
       <c r="M22" s="1" t="s">
@@ -11274,7 +11551,7 @@
       <c r="A23" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>111</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -11283,10 +11560,10 @@
       <c r="J23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="K23" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="L23" s="10" t="s">
+      <c r="L23" s="11" t="s">
         <v>113</v>
       </c>
       <c r="M23" s="1" t="s">
@@ -17344,7 +17621,7 @@
       <c r="F244" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="G244" s="11" t="s">
+      <c r="G244" s="12" t="s">
         <v>1102</v>
       </c>
       <c r="J244" s="1" t="s">
@@ -19524,14 +19801,14 @@
       <c r="D3" s="1" t="s">
         <v>1440</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>1444</v>
       </c>
       <c r="F3" s="1">
         <v>2601</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="3" t="s">
+      <c r="H3" s="3"/>
+      <c r="I3" s="4" t="s">
         <v>1445</v>
       </c>
     </row>
@@ -19548,14 +19825,14 @@
       <c r="D4" s="1" t="s">
         <v>1440</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>1447</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>1448</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>1449</v>
       </c>
     </row>
@@ -19572,14 +19849,14 @@
       <c r="D5" s="1" t="s">
         <v>1440</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>1451</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>1452</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="4" t="s">
         <v>1453</v>
       </c>
     </row>
@@ -19596,12 +19873,12 @@
       <c r="D6" s="1" t="s">
         <v>1440</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>1455</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" customHeight="1" spans="1:9">
       <c r="A7" s="1" t="s">
@@ -19616,14 +19893,14 @@
       <c r="D7" s="1" t="s">
         <v>1440</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>1457</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="3" t="s">
         <v>1458</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="4" t="s">
         <v>1459</v>
       </c>
     </row>
@@ -19640,14 +19917,14 @@
       <c r="D8" s="1" t="s">
         <v>1440</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>1461</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="3" t="s">
         <v>1462</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="4" t="s">
         <v>1463</v>
       </c>
     </row>
@@ -19664,14 +19941,14 @@
       <c r="D9" s="1" t="s">
         <v>1440</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>1465</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="3" t="s">
         <v>1466</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="4" t="s">
         <v>1467</v>
       </c>
     </row>
@@ -19688,14 +19965,14 @@
       <c r="D10" s="1" t="s">
         <v>1440</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>1469</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="3" t="s">
         <v>1470</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="4" t="s">
         <v>1471</v>
       </c>
     </row>
@@ -19712,14 +19989,14 @@
       <c r="D11" s="1" t="s">
         <v>1440</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>1473</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="3" t="s">
         <v>1474</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="4" t="s">
         <v>1475</v>
       </c>
     </row>
@@ -19736,14 +20013,14 @@
       <c r="D12" s="1" t="s">
         <v>1440</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>1477</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="3" t="s">
         <v>1478</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="4" t="s">
         <v>1479</v>
       </c>
     </row>
@@ -19760,14 +20037,14 @@
       <c r="D13" s="1" t="s">
         <v>1440</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>1481</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="3" t="s">
         <v>1482</v>
       </c>
-      <c r="I13" s="3"/>
+      <c r="I13" s="4"/>
     </row>
     <row r="14" customHeight="1" spans="1:9">
       <c r="A14" s="1" t="s">
@@ -19782,14 +20059,14 @@
       <c r="D14" s="1" t="s">
         <v>1440</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>1484</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="3" t="s">
         <v>1485</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="4" t="s">
         <v>1486</v>
       </c>
     </row>
@@ -19806,14 +20083,14 @@
       <c r="D15" s="1" t="s">
         <v>1440</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="3" t="s">
         <v>1488</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="3" t="s">
         <v>1489</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="4" t="s">
         <v>1490</v>
       </c>
     </row>
@@ -19830,14 +20107,14 @@
       <c r="D16" s="1" t="s">
         <v>1440</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="3" t="s">
         <v>1492</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="3" t="s">
         <v>1493</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="4" t="s">
         <v>1494</v>
       </c>
     </row>
@@ -19854,14 +20131,14 @@
       <c r="D17" s="1" t="s">
         <v>1440</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>1440</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="3" t="s">
         <v>1496</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="4" t="s">
         <v>1497</v>
       </c>
     </row>
@@ -19878,14 +20155,14 @@
       <c r="D18" s="1" t="s">
         <v>1440</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="3" t="s">
         <v>1499</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="3" t="s">
         <v>1500</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="4" t="s">
         <v>1501</v>
       </c>
     </row>
@@ -19902,14 +20179,14 @@
       <c r="D19" s="1" t="s">
         <v>1440</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="3" t="s">
         <v>1503</v>
       </c>
       <c r="F19" s="1"/>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="3" t="s">
         <v>1504</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="4" t="s">
         <v>1505</v>
       </c>
     </row>
@@ -19926,12 +20203,12 @@
       <c r="D20" s="1" t="s">
         <v>1440</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="3" t="s">
         <v>1507</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="12" t="s">
+      <c r="H20" s="3"/>
+      <c r="I20" s="13" t="s">
         <v>1508</v>
       </c>
     </row>
@@ -19948,14 +20225,14 @@
       <c r="D21" s="1" t="s">
         <v>1440</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="3" t="s">
         <v>1511</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="4" t="s">
         <v>1512</v>
       </c>
     </row>
@@ -19972,14 +20249,14 @@
       <c r="D22" s="1" t="s">
         <v>1440</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="3" t="s">
         <v>1514</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="3" t="s">
         <v>1515</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="4" t="s">
         <v>1516</v>
       </c>
     </row>
@@ -19996,13 +20273,13 @@
       <c r="D23" s="1" t="s">
         <v>1440</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="3" t="s">
         <v>1518</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="3" t="s">
         <v>1519</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="4" t="s">
         <v>1520</v>
       </c>
     </row>
@@ -22905,7 +23182,7 @@
       <c r="E159" s="1" t="s">
         <v>1947</v>
       </c>
-      <c r="I159" s="4" t="s">
+      <c r="I159" s="5" t="s">
         <v>1948</v>
       </c>
     </row>
@@ -23495,7 +23772,7 @@
       <c r="E187" s="1" t="s">
         <v>2034</v>
       </c>
-      <c r="I187" s="4" t="s">
+      <c r="I187" s="5" t="s">
         <v>1948</v>
       </c>
     </row>
@@ -25932,7 +26209,7 @@
       <c r="E309" s="1" t="s">
         <v>2380</v>
       </c>
-      <c r="I309" s="4" t="s">
+      <c r="I309" s="5" t="s">
         <v>1948</v>
       </c>
     </row>
@@ -26466,7 +26743,7 @@
       <c r="E333" s="1" t="s">
         <v>2454</v>
       </c>
-      <c r="I333" s="4" t="s">
+      <c r="I333" s="5" t="s">
         <v>1948</v>
       </c>
     </row>
@@ -27627,15 +27904,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="24.752380952381" customWidth="1"/>
+    <col min="1" max="1" width="24.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="48" customWidth="1"/>
     <col min="3" max="3" width="29.3809523809524" customWidth="1"/>
   </cols>
   <sheetData>
@@ -27660,10 +27938,10 @@
       <c r="B2" s="1" t="s">
         <v>2641</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2642</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>2643</v>
       </c>
     </row>
@@ -27674,10 +27952,10 @@
       <c r="B3" s="1" t="s">
         <v>2644</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>2645</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>2646</v>
       </c>
     </row>
@@ -27688,10 +27966,10 @@
       <c r="B4" s="1" t="s">
         <v>2647</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>2648</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>2649</v>
       </c>
     </row>
@@ -27702,10 +27980,10 @@
       <c r="B5" s="1" t="s">
         <v>2650</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>2651</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>2652</v>
       </c>
     </row>
@@ -27716,10 +27994,10 @@
       <c r="B6" s="1" t="s">
         <v>2653</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>2654</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>2655</v>
       </c>
     </row>
@@ -27730,10 +28008,10 @@
       <c r="B7" s="1" t="s">
         <v>2656</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>2657</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>2658</v>
       </c>
     </row>
@@ -27744,10 +28022,10 @@
       <c r="B8" s="1" t="s">
         <v>2659</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>2660</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>2661</v>
       </c>
     </row>
@@ -27758,10 +28036,10 @@
       <c r="B9" s="1" t="s">
         <v>2662</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>2663</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>2664</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -27778,10 +28056,10 @@
       <c r="B10" s="1" t="s">
         <v>2667</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>2668</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>2669</v>
       </c>
     </row>
@@ -27792,81 +28070,1061 @@
       <c r="B11" s="1" t="s">
         <v>2670</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>2671</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>2672</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>2673</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>2674</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>2675</v>
+      <c r="C12" s="2" t="s">
+        <v>2642</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>2643</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>2676</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>2677</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>2678</v>
+        <v>2674</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>2645</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>2646</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>2679</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>2680</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>2681</v>
+        <v>2675</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>2648</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>2649</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>2682</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>2683</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>2684</v>
+        <v>2676</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>2651</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>2652</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>2677</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>2654</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>2678</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>2657</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>2660</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>2680</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>2663</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>2681</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>2668</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>2682</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>2671</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>2683</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>2642</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>2684</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>2645</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>2685</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C24" s="2" t="s">
+        <v>2648</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>2686</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="C25" s="2" t="s">
+        <v>2651</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>2687</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>2654</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>2688</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>2657</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>2689</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>2660</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>2690</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>2663</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>2691</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>2668</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>2692</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>2671</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>2693</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>2642</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>2694</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>2645</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>2695</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>2648</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>2696</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>2651</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>2697</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>2654</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>2698</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>2657</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>2699</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>2660</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>2700</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>2663</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>2668</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>2702</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>2671</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>2642</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>2645</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>2705</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>2648</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>2706</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>2651</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>2707</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>2654</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>2708</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>2657</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>2709</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>2660</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>2710</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>2663</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:4">
+      <c r="A50" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>2711</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>2668</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:4">
+      <c r="A51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>2712</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>2671</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:4">
+      <c r="A52" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>2713</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>2714</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:4">
+      <c r="A53" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>2716</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>2717</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:4">
+      <c r="A54" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>2719</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>2720</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:4">
+      <c r="A55" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>2722</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>2723</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="1:4">
+      <c r="A56" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>2725</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>2726</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="1:4">
+      <c r="A57" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>2729</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:4">
+      <c r="A58" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>2731</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>2732</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="1:4">
+      <c r="A59" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>2734</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>2735</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="1:4">
+      <c r="A60" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>2737</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>2738</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="1:4">
+      <c r="A61" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>2740</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>2741</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="1:4">
+      <c r="A62" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>2743</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>2714</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="1:4">
+      <c r="A63" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>2744</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>2717</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="1:4">
+      <c r="A64" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>2745</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>2720</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="1:4">
+      <c r="A65" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>2723</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:4">
+      <c r="A66" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>2747</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>2726</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="1:4">
+      <c r="A67" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>2729</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="1:4">
+      <c r="A68" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>2749</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>2732</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="1:4">
+      <c r="A69" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>2750</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>2735</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="1:4">
+      <c r="A70" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>2751</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>2738</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="1:4">
+      <c r="A71" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>2752</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>2741</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="1:4">
+      <c r="A72" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>2714</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="1:4">
+      <c r="A73" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>2754</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>2717</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="1:4">
+      <c r="A74" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>2755</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>2720</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="1:4">
+      <c r="A75" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>2723</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="1:4">
+      <c r="A76" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>2757</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>2726</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="1:4">
+      <c r="A77" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>2758</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>2729</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="1:4">
+      <c r="A78" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>2759</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>2732</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="1:4">
+      <c r="A79" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>2760</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>2735</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="1:4">
+      <c r="A80" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>2761</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>2738</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="1:4">
+      <c r="A81" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>2762</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>2741</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="1:4">
+      <c r="A82" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>2763</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>2764</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="1:4">
+      <c r="A83" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>2766</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>2767</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="1:4">
+      <c r="A84" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>2769</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>2770</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="1:4">
+      <c r="A85" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>2772</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>2773</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="1:4">
+      <c r="A86" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>2775</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>2776</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>2777</v>
       </c>
     </row>
   </sheetData>
@@ -27896,13 +29154,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2688</v>
+        <v>2778</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2689</v>
+        <v>2779</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2690</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
@@ -27910,13 +29168,13 @@
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2691</v>
+        <v>2781</v>
       </c>
       <c r="C2" s="1">
         <v>2012</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2692</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
@@ -27924,13 +29182,13 @@
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2693</v>
+        <v>2783</v>
       </c>
       <c r="C3" s="1">
         <v>2015</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>2694</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
@@ -27938,13 +29196,13 @@
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2695</v>
+        <v>2785</v>
       </c>
       <c r="C4" s="1">
         <v>2015</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>2696</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
@@ -27952,13 +29210,13 @@
         <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2697</v>
+        <v>2787</v>
       </c>
       <c r="C5" s="1">
         <v>2015</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>2698</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
@@ -27966,13 +29224,13 @@
         <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2699</v>
+        <v>2789</v>
       </c>
       <c r="C6" s="1">
         <v>2015</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>2700</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
@@ -27980,13 +29238,13 @@
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2701</v>
+        <v>2791</v>
       </c>
       <c r="C7" s="1">
         <v>2017</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>2702</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
@@ -27994,13 +29252,13 @@
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2703</v>
+        <v>2793</v>
       </c>
       <c r="C8" s="1">
         <v>2018</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>2704</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
@@ -28008,13 +29266,13 @@
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>2705</v>
+        <v>2795</v>
       </c>
       <c r="C9" s="1">
         <v>2019</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>2706</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
@@ -28022,13 +29280,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>2707</v>
+        <v>2797</v>
       </c>
       <c r="C10" s="1">
         <v>2020</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>2708</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
@@ -28036,13 +29294,13 @@
         <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>2709</v>
+        <v>2799</v>
       </c>
       <c r="C11" s="1">
         <v>2020</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>2710</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:4">
@@ -28050,13 +29308,13 @@
         <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>2711</v>
+        <v>2801</v>
       </c>
       <c r="C12" s="1">
         <v>2020</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>2712</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:4">
@@ -28064,13 +29322,13 @@
         <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>2713</v>
+        <v>2803</v>
       </c>
       <c r="C13" s="1">
         <v>2021</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>2714</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:4">
@@ -28078,13 +29336,13 @@
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>2715</v>
+        <v>2805</v>
       </c>
       <c r="C14" s="1">
         <v>2021</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>2716</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
@@ -28092,13 +29350,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>2717</v>
+        <v>2807</v>
       </c>
       <c r="C15" s="1">
         <v>2021</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>2718</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:4">
@@ -28106,13 +29364,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>2719</v>
+        <v>2809</v>
       </c>
       <c r="C16" s="1">
         <v>2022</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>2720</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:4">
@@ -28120,13 +29378,13 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>2721</v>
+        <v>2811</v>
       </c>
       <c r="C17" s="1">
         <v>2022</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>2722</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:4">
@@ -28134,13 +29392,13 @@
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>2723</v>
+        <v>2813</v>
       </c>
       <c r="C18" s="1">
         <v>2023</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>2724</v>
+        <v>2814</v>
       </c>
     </row>
   </sheetData>
